--- a/document/revision_data.xlsx
+++ b/document/revision_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="135" windowHeight="8490" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="135" windowHeight="8490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2780,8 +2780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3221,8 +3221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
-      <selection activeCell="B335" sqref="B335:L336"/>
+    <sheetView topLeftCell="A302" workbookViewId="0">
+      <selection activeCell="G333" sqref="G333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
